--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang6/02.XuLyBH/XLBH2106_Qmaps.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang6/02.XuLyBH/XLBH2106_Qmaps.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="78">
   <si>
     <t>STT</t>
   </si>
@@ -232,6 +232,42 @@
   </si>
   <si>
     <t>TG102V</t>
+  </si>
+  <si>
+    <t>LE.2.00.---28.200624</t>
+  </si>
+  <si>
+    <t>Lcok: 125.212.203.114,15757</t>
+  </si>
+  <si>
+    <t>Thiết bị chập nguồn</t>
+  </si>
+  <si>
+    <t>Thay tụ lọc nguồn</t>
+  </si>
+  <si>
+    <t>Tùng</t>
+  </si>
+  <si>
+    <t>W.2.00.---19.200319</t>
+  </si>
+  <si>
+    <t>Lock: 125.212.203.114,15757</t>
+  </si>
+  <si>
+    <t>Nguồn thiết bị chập chờn</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>Xử lý lại connector nguồn, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>PC+PM</t>
+  </si>
+  <si>
+    <t>NG,NCFW</t>
   </si>
 </sst>
 </file>
@@ -1000,8 +1036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:D14"/>
+    <sheetView showZeros="0" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1216,7 +1252,9 @@
       <c r="B6" s="37">
         <v>44348</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44348</v>
+      </c>
       <c r="D6" s="38" t="s">
         <v>44</v>
       </c>
@@ -1228,16 +1266,32 @@
         <v>64</v>
       </c>
       <c r="H6" s="38"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="61"/>
+      <c r="I6" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6" s="61" t="s">
+        <v>66</v>
+      </c>
       <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="M6" s="40" t="s">
+        <v>69</v>
+      </c>
       <c r="N6" s="41"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
+      <c r="O6" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="P6" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>31</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="71"/>
       <c r="U6" s="83" t="s">
@@ -1685,7 +1739,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -1930,7 +1984,7 @@
       </c>
       <c r="V29" s="10">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="14"/>
     </row>
@@ -2186,7 +2240,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -2793,8 +2847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3009,7 +3063,9 @@
       <c r="B6" s="37">
         <v>44348</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44348</v>
+      </c>
       <c r="D6" s="38" t="s">
         <v>65</v>
       </c>
@@ -3021,16 +3077,32 @@
         <v>64</v>
       </c>
       <c r="H6" s="38"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="61"/>
+      <c r="I6" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" s="61" t="s">
+        <v>71</v>
+      </c>
       <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="M6" s="40" t="s">
+        <v>75</v>
+      </c>
       <c r="N6" s="41"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
+      <c r="O6" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="P6" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>77</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="74"/>
       <c r="U6" s="83" t="s">
@@ -3510,7 +3582,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -3723,7 +3795,7 @@
       </c>
       <c r="V29" s="10">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="14"/>
     </row>
@@ -3915,7 +3987,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -3979,7 +4051,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W37" s="14"/>
     </row>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang6/02.XuLyBH/XLBH2106_Qmaps.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang6/02.XuLyBH/XLBH2106_Qmaps.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="31" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="78">
   <si>
     <t>STT</t>
   </si>
@@ -467,7 +467,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -691,9 +691,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -713,21 +731,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1036,8 +1039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView showZeros="0" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1069,43 +1072,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="85"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="53"/>
@@ -1150,58 +1153,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="80"/>
+      <c r="M4" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="86" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="87" t="s">
+      <c r="S4" s="81" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="80" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -1226,23 +1229,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="80"/>
       <c r="K5" s="70" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="87"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="81"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1294,7 +1297,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="71"/>
-      <c r="U6" s="83" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1325,7 +1328,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="71"/>
-      <c r="U7" s="84"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1354,7 +1357,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="71"/>
-      <c r="U8" s="84"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1383,7 +1386,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="71"/>
-      <c r="U9" s="84"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1412,7 +1415,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="71"/>
-      <c r="U10" s="84"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1441,7 +1444,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="71"/>
-      <c r="U11" s="84"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1470,7 +1473,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="71"/>
-      <c r="U12" s="83" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1501,7 +1504,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="71"/>
-      <c r="U13" s="84"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1530,7 +1533,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="71"/>
-      <c r="U14" s="84"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1559,7 +1562,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1588,7 +1591,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2819,13 +2822,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2837,6 +2833,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2847,8 +2850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView showZeros="0" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2880,43 +2883,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="85"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="53"/>
@@ -2961,58 +2964,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="80"/>
+      <c r="M4" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="86" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="87" t="s">
+      <c r="S4" s="81" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="80" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -3037,23 +3040,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="80"/>
       <c r="K5" s="73" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="87"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="81"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3105,7 +3108,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="74"/>
-      <c r="U6" s="83" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3136,7 +3139,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="74"/>
-      <c r="U7" s="84"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3165,7 +3168,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="74"/>
-      <c r="U8" s="84"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3194,7 +3197,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="74"/>
-      <c r="U9" s="84"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3223,7 +3226,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="74"/>
-      <c r="U10" s="84"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3252,7 +3255,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="74"/>
-      <c r="U11" s="84"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3281,7 +3284,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="74"/>
-      <c r="U12" s="83" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3312,7 +3315,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="74"/>
-      <c r="U13" s="84"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3341,7 +3344,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="74"/>
-      <c r="U14" s="84"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3370,7 +3373,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3399,7 +3402,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4630,13 +4633,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4648,6 +4644,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4658,8 +4661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4691,43 +4694,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="85"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -4772,58 +4775,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="80"/>
+      <c r="M4" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="86" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="87" t="s">
+      <c r="S4" s="81" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="80" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -4848,49 +4851,75 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="80"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="87"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="81"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="39"/>
+      <c r="B6" s="37">
+        <v>44348</v>
+      </c>
+      <c r="C6" s="37">
+        <v>44348</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="39">
+        <v>868183034653860</v>
+      </c>
       <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
+      <c r="G6" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="H6" s="38"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="61"/>
+      <c r="I6" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6" s="61" t="s">
+        <v>66</v>
+      </c>
       <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="M6" s="40" t="s">
+        <v>69</v>
+      </c>
       <c r="N6" s="41"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
+      <c r="O6" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="P6" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>31</v>
+      </c>
       <c r="S6" s="4"/>
-      <c r="T6" s="43"/>
-      <c r="U6" s="83" t="s">
+      <c r="T6" s="75"/>
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -4902,26 +4931,52 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="39"/>
+      <c r="B7" s="37">
+        <v>44348</v>
+      </c>
+      <c r="C7" s="37">
+        <v>44348</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="39">
+        <v>868926033932622</v>
+      </c>
       <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
+      <c r="G7" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="H7" s="38"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="61"/>
+      <c r="I7" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K7" s="61" t="s">
+        <v>71</v>
+      </c>
       <c r="L7" s="40"/>
-      <c r="M7" s="1"/>
+      <c r="M7" s="40" t="s">
+        <v>75</v>
+      </c>
       <c r="N7" s="41"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
+      <c r="O7" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="P7" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>77</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="43"/>
-      <c r="U7" s="84"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -4950,7 +5005,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="84"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -4979,7 +5034,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="84"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5008,7 +5063,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="84"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5037,7 +5092,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="84"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5066,7 +5121,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="83" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5097,7 +5152,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="84"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5126,7 +5181,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="84"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5155,7 +5210,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5184,7 +5239,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -5335,7 +5390,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -5367,7 +5422,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -5580,7 +5635,7 @@
       </c>
       <c r="V29" s="10">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W29" s="14"/>
     </row>
@@ -5772,7 +5827,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -5836,7 +5891,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -6415,6 +6470,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6426,13 +6488,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
